--- a/templateMB.xlsx
+++ b/templateMB.xlsx
@@ -21,18 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">This is the text of a message SMS</t>
   </si>
   <si>
-    <t xml:space="preserve">7747461749</t>
+    <t xml:space="preserve">07747461749</t>
   </si>
   <si>
-    <t xml:space="preserve">447747461749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07747461749</t>
+    <t xml:space="preserve">+447796126564</t>
   </si>
 </sst>
 </file>
@@ -108,12 +105,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,16 +177,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
